--- a/orcamentoAlex Tavares.xlsx
+++ b/orcamentoAlex Tavares.xlsx
@@ -271,9 +271,12 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -344,6 +347,206 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -886,74 +1089,74 @@
       <c r="J24" s="14"/>
     </row>
     <row r="25" ht="14.25" customHeight="true">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="27"/>
     </row>
     <row r="26" ht="14.25" customHeight="true">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
     </row>
     <row r="27" ht="14.25" customHeight="true">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" ht="14.25" customHeight="true">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="57"/>
     </row>
     <row r="29" ht="14.25" customHeight="true">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="64"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
+      <c r="J29" s="67"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="15" t="s">

--- a/orcamentoAlex Tavares.xlsx
+++ b/orcamentoAlex Tavares.xlsx
@@ -1088,7 +1088,7 @@
       <c r="I24" s="14"/>
       <c r="J24" s="14"/>
     </row>
-    <row r="25" ht="14.25" customHeight="true">
+    <row r="25">
       <c r="A25" s="18" t="s">
         <v>25</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="I25" s="26"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" ht="14.25" customHeight="true">
+    <row r="26">
       <c r="A26" s="28" t="s">
         <v>25</v>
       </c>
@@ -1116,7 +1116,7 @@
       <c r="I26" s="36"/>
       <c r="J26" s="37"/>
     </row>
-    <row r="27" ht="14.25" customHeight="true">
+    <row r="27">
       <c r="A27" s="38" t="s">
         <v>25</v>
       </c>
@@ -1130,7 +1130,7 @@
       <c r="I27" s="46"/>
       <c r="J27" s="47"/>
     </row>
-    <row r="28" ht="14.25" customHeight="true">
+    <row r="28">
       <c r="A28" s="48" t="s">
         <v>25</v>
       </c>
@@ -1144,7 +1144,7 @@
       <c r="I28" s="56"/>
       <c r="J28" s="57"/>
     </row>
-    <row r="29" ht="14.25" customHeight="true">
+    <row r="29">
       <c r="A29" s="58" t="s">
         <v>25</v>
       </c>
